--- a/Employee_Reports21/Nhuel Caguicla Landicho Q0329.xlsx
+++ b/Employee_Reports21/Nhuel Caguicla Landicho Q0329.xlsx
@@ -548,11 +548,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -594,11 +594,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
